--- a/scripts/output/201912/父母/父母收益估算.xlsx
+++ b/scripts/output/201912/父母/父母收益估算.xlsx
@@ -556,17 +556,17 @@
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.0289</v>
+        <v>1.0288</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>17.12</v>
+        <v>0</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 10:54</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -625,17 +625,17 @@
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.4686</v>
+        <v>1.4684</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>0.0025</v>
+        <v>0.0024</v>
       </c>
       <c r="K3" s="8" t="n">
-        <v>41.75</v>
+        <v>39.44</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 10:54</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -694,17 +694,17 @@
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.0761</v>
+        <v>1.076</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="K4" s="8" t="n">
-        <v>12.89</v>
+        <v>0</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 10:54</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -763,17 +763,17 @@
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.0781</v>
+        <v>1.078</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="K5" s="8" t="n">
-        <v>13.27</v>
+        <v>0</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 10:54</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -832,17 +832,17 @@
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.2394</v>
+        <v>1.2395</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>-0.0005</v>
+        <v>-0.0004</v>
       </c>
       <c r="K6" s="9" t="n">
-        <v>-35.81</v>
+        <v>-29.84</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 10:54</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -901,17 +901,17 @@
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>1.2864</v>
+        <v>1.2867</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>-0.0013</v>
+        <v>-0.001</v>
       </c>
       <c r="K7" s="9" t="n">
-        <v>-123.14</v>
+        <v>-100.05</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 10:54</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -970,17 +970,17 @@
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>1.079</v>
+        <v>1.0789</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="K8" s="8" t="n">
-        <v>14.06</v>
+        <v>0</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 10:54</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1039,17 +1039,17 @@
         </is>
       </c>
       <c r="I9" s="12" t="n">
-        <v>1.4234</v>
+        <v>1.4237</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.0053</v>
+        <v>-0.0051</v>
       </c>
       <c r="K9" s="9" t="n">
-        <v>-7.7</v>
+        <v>-7.4</v>
       </c>
       <c r="L9" s="14" t="inlineStr">
         <is>
-          <t>2019-12-04 10:53</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M9" s="14" t="inlineStr">
@@ -1108,17 +1108,17 @@
         </is>
       </c>
       <c r="I10" s="12" t="n">
-        <v>1.6074</v>
+        <v>1.6082</v>
       </c>
       <c r="J10" s="15" t="n">
-        <v>-0.0053</v>
+        <v>-0.0048</v>
       </c>
       <c r="K10" s="9" t="n">
-        <v>-7.4</v>
+        <v>-6.71</v>
       </c>
       <c r="L10" s="14" t="inlineStr">
         <is>
-          <t>2019-12-04 10:54</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M10" s="14" t="inlineStr">
@@ -1177,17 +1177,17 @@
         </is>
       </c>
       <c r="I11" s="12" t="n">
-        <v>1.4319</v>
+        <v>1.4291</v>
       </c>
       <c r="J11" s="15" t="n">
-        <v>-0.0097</v>
+        <v>-0.0117</v>
       </c>
       <c r="K11" s="9" t="n">
-        <v>-12.66</v>
+        <v>-15.18</v>
       </c>
       <c r="L11" s="14" t="inlineStr">
         <is>
-          <t>2019-12-04 10:55</t>
+          <t>2019-12-04 16:00</t>
         </is>
       </c>
       <c r="M11" s="14" t="inlineStr">
@@ -1246,17 +1246,17 @@
         </is>
       </c>
       <c r="I12" s="12" t="n">
-        <v>0.9147999999999999</v>
+        <v>0.9153</v>
       </c>
       <c r="J12" s="15" t="n">
-        <v>-0.0012</v>
+        <v>-0.0007</v>
       </c>
       <c r="K12" s="9" t="n">
-        <v>-1.44</v>
+        <v>-0.79</v>
       </c>
       <c r="L12" s="14" t="inlineStr">
         <is>
-          <t>2019-12-04 10:54</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M12" s="14" t="inlineStr">
@@ -1315,17 +1315,17 @@
         </is>
       </c>
       <c r="I13" s="12" t="n">
-        <v>1.8547</v>
+        <v>1.857</v>
       </c>
       <c r="J13" s="15" t="n">
-        <v>0</v>
+        <v>0.0012</v>
       </c>
       <c r="K13" s="8" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="L13" s="14" t="inlineStr">
         <is>
-          <t>2019-12-04 10:54</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M13" s="14" t="inlineStr">
@@ -1384,17 +1384,17 @@
         </is>
       </c>
       <c r="I14" s="12" t="n">
-        <v>2.1576</v>
+        <v>2.159</v>
       </c>
       <c r="J14" s="15" t="n">
-        <v>0.0011</v>
+        <v>0.0018</v>
       </c>
       <c r="K14" s="8" t="n">
-        <v>0.97</v>
+        <v>1.52</v>
       </c>
       <c r="L14" s="14" t="inlineStr">
         <is>
-          <t>2019-12-04 10:54</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M14" s="14" t="inlineStr">
@@ -1456,14 +1456,14 @@
         <v>0.9412</v>
       </c>
       <c r="J15" s="15" t="n">
-        <v>0.0013</v>
+        <v>0.0014</v>
       </c>
       <c r="K15" s="8" t="n">
         <v>0.46</v>
       </c>
       <c r="L15" s="14" t="inlineStr">
         <is>
-          <t>2019-12-04 10:54</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M15" s="14" t="inlineStr">
@@ -1522,17 +1522,17 @@
         </is>
       </c>
       <c r="I16" s="12" t="n">
-        <v>0.9349</v>
+        <v>0.9354</v>
       </c>
       <c r="J16" s="15" t="n">
-        <v>-0.0027</v>
+        <v>-0.0022</v>
       </c>
       <c r="K16" s="9" t="n">
-        <v>-0.54</v>
+        <v>-0.43</v>
       </c>
       <c r="L16" s="14" t="inlineStr">
         <is>
-          <t>2019-12-04 10:54</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M16" s="14" t="inlineStr">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="L17" s="14" t="inlineStr">
         <is>
-          <t>2019-12-04 10:54</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M17" s="14" t="inlineStr">
@@ -1660,17 +1660,17 @@
         </is>
       </c>
       <c r="I18" s="12" t="n">
-        <v>1.2912</v>
+        <v>1.2916</v>
       </c>
       <c r="J18" s="15" t="n">
-        <v>-0.0052</v>
+        <v>-0.0049</v>
       </c>
       <c r="K18" s="9" t="n">
-        <v>-0.42</v>
+        <v>-0.4</v>
       </c>
       <c r="L18" s="14" t="inlineStr">
         <is>
-          <t>2019-12-04 10:53</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M18" s="14" t="inlineStr">
@@ -1729,17 +1729,17 @@
         </is>
       </c>
       <c r="I19" s="12" t="n">
-        <v>1.4332</v>
+        <v>1.4337</v>
       </c>
       <c r="J19" s="15" t="n">
-        <v>-0.0055</v>
+        <v>-0.0051</v>
       </c>
       <c r="K19" s="9" t="n">
-        <v>-0.19</v>
+        <v>-0.18</v>
       </c>
       <c r="L19" s="14" t="inlineStr">
         <is>
-          <t>2019-12-04 10:54</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M19" s="14" t="inlineStr">
@@ -1798,17 +1798,17 @@
         </is>
       </c>
       <c r="I20" s="12" t="n">
-        <v>1.6074</v>
+        <v>1.6082</v>
       </c>
       <c r="J20" s="15" t="n">
-        <v>-0.0053</v>
+        <v>-0.0048</v>
       </c>
       <c r="K20" s="9" t="n">
-        <v>-7.89</v>
+        <v>-7.16</v>
       </c>
       <c r="L20" s="14" t="inlineStr">
         <is>
-          <t>2019-12-04 10:54</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M20" s="14" t="inlineStr">
@@ -1867,17 +1867,17 @@
         </is>
       </c>
       <c r="I21" s="12" t="n">
-        <v>1.4234</v>
+        <v>1.4237</v>
       </c>
       <c r="J21" s="15" t="n">
-        <v>-0.0053</v>
+        <v>-0.0051</v>
       </c>
       <c r="K21" s="9" t="n">
-        <v>-7.55</v>
+        <v>-7.25</v>
       </c>
       <c r="L21" s="14" t="inlineStr">
         <is>
-          <t>2019-12-04 10:53</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M21" s="14" t="inlineStr">
@@ -1936,17 +1936,17 @@
         </is>
       </c>
       <c r="I22" s="12" t="n">
-        <v>1.4319</v>
+        <v>1.4291</v>
       </c>
       <c r="J22" s="15" t="n">
-        <v>-0.0097</v>
+        <v>-0.0117</v>
       </c>
       <c r="K22" s="9" t="n">
-        <v>-12.92</v>
+        <v>-15.48</v>
       </c>
       <c r="L22" s="14" t="inlineStr">
         <is>
-          <t>2019-12-04 10:55</t>
+          <t>2019-12-04 16:00</t>
         </is>
       </c>
       <c r="M22" s="14" t="inlineStr">
@@ -2005,17 +2005,17 @@
         </is>
       </c>
       <c r="I23" s="12" t="n">
-        <v>0.9147999999999999</v>
+        <v>0.9153</v>
       </c>
       <c r="J23" s="15" t="n">
-        <v>-0.0012</v>
+        <v>-0.0007</v>
       </c>
       <c r="K23" s="9" t="n">
-        <v>-1.45</v>
+        <v>-0.79</v>
       </c>
       <c r="L23" s="14" t="inlineStr">
         <is>
-          <t>2019-12-04 10:54</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M23" s="14" t="inlineStr">
@@ -2074,17 +2074,17 @@
         </is>
       </c>
       <c r="I24" s="12" t="n">
-        <v>1.8547</v>
+        <v>1.857</v>
       </c>
       <c r="J24" s="15" t="n">
-        <v>0</v>
+        <v>0.0012</v>
       </c>
       <c r="K24" s="8" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="L24" s="14" t="inlineStr">
         <is>
-          <t>2019-12-04 10:54</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M24" s="14" t="inlineStr">
@@ -2143,17 +2143,17 @@
         </is>
       </c>
       <c r="I25" s="12" t="n">
-        <v>2.1576</v>
+        <v>2.159</v>
       </c>
       <c r="J25" s="15" t="n">
-        <v>0.0011</v>
+        <v>0.0018</v>
       </c>
       <c r="K25" s="8" t="n">
-        <v>0.93</v>
+        <v>1.45</v>
       </c>
       <c r="L25" s="14" t="inlineStr">
         <is>
-          <t>2019-12-04 10:54</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M25" s="14" t="inlineStr">
@@ -2215,14 +2215,14 @@
         <v>0.9412</v>
       </c>
       <c r="J26" s="15" t="n">
-        <v>0.0013</v>
+        <v>0.0014</v>
       </c>
       <c r="K26" s="8" t="n">
         <v>0.46</v>
       </c>
       <c r="L26" s="14" t="inlineStr">
         <is>
-          <t>2019-12-04 10:54</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M26" s="14" t="inlineStr">
@@ -2281,17 +2281,17 @@
         </is>
       </c>
       <c r="I27" s="12" t="n">
-        <v>0.9349</v>
+        <v>0.9354</v>
       </c>
       <c r="J27" s="15" t="n">
-        <v>-0.0027</v>
+        <v>-0.0022</v>
       </c>
       <c r="K27" s="9" t="n">
-        <v>-0.57</v>
+        <v>-0.46</v>
       </c>
       <c r="L27" s="14" t="inlineStr">
         <is>
-          <t>2019-12-04 10:54</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M27" s="14" t="inlineStr">
@@ -2350,17 +2350,17 @@
         </is>
       </c>
       <c r="I28" s="12" t="n">
-        <v>1.2912</v>
+        <v>1.2916</v>
       </c>
       <c r="J28" s="15" t="n">
-        <v>-0.0052</v>
+        <v>-0.0049</v>
       </c>
       <c r="K28" s="9" t="n">
-        <v>-0.97</v>
+        <v>-0.91</v>
       </c>
       <c r="L28" s="14" t="inlineStr">
         <is>
-          <t>2019-12-04 10:53</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M28" s="14" t="inlineStr">
@@ -2429,7 +2429,7 @@
       </c>
       <c r="L29" s="14" t="inlineStr">
         <is>
-          <t>2019-12-04 10:54</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M29" s="14" t="inlineStr">
@@ -2488,17 +2488,17 @@
         </is>
       </c>
       <c r="I30" s="12" t="n">
-        <v>1.4332</v>
+        <v>1.4337</v>
       </c>
       <c r="J30" s="15" t="n">
-        <v>-0.0055</v>
+        <v>-0.0051</v>
       </c>
       <c r="K30" s="9" t="n">
-        <v>-0.19</v>
+        <v>-0.18</v>
       </c>
       <c r="L30" s="14" t="inlineStr">
         <is>
-          <t>2019-12-04 10:54</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M30" s="14" t="inlineStr">
@@ -2557,17 +2557,17 @@
         </is>
       </c>
       <c r="I31" s="18" t="n">
-        <v>1.0798</v>
+        <v>1.0806</v>
       </c>
       <c r="J31" s="21" t="n">
-        <v>-0.0018</v>
+        <v>-0.0011</v>
       </c>
       <c r="K31" s="9" t="n">
-        <v>-19.4</v>
+        <v>-11.64</v>
       </c>
       <c r="L31" s="20" t="inlineStr">
         <is>
-          <t>2019-12-04 10:54</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M31" s="20" t="inlineStr">
@@ -2626,17 +2626,17 @@
         </is>
       </c>
       <c r="I32" s="18" t="n">
-        <v>1.0902</v>
+        <v>1.0907</v>
       </c>
       <c r="J32" s="21" t="n">
-        <v>-0.0053</v>
+        <v>-0.0048</v>
       </c>
       <c r="K32" s="9" t="n">
-        <v>-50.33</v>
+        <v>-45.99</v>
       </c>
       <c r="L32" s="20" t="inlineStr">
         <is>
-          <t>2019-12-04 10:54</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M32" s="20" t="inlineStr">
@@ -2698,14 +2698,14 @@
         <v>0.9412</v>
       </c>
       <c r="J33" s="21" t="n">
-        <v>0.0013</v>
+        <v>0.0014</v>
       </c>
       <c r="K33" s="8" t="n">
         <v>7.93</v>
       </c>
       <c r="L33" s="20" t="inlineStr">
         <is>
-          <t>2019-12-04 10:54</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M33" s="20" t="inlineStr">
@@ -2764,17 +2764,17 @@
         </is>
       </c>
       <c r="I34" s="18" t="n">
-        <v>0.827</v>
+        <v>0.8267</v>
       </c>
       <c r="J34" s="21" t="n">
-        <v>0.0046</v>
+        <v>0.0043</v>
       </c>
       <c r="K34" s="8" t="n">
-        <v>25.65</v>
+        <v>23.63</v>
       </c>
       <c r="L34" s="20" t="inlineStr">
         <is>
-          <t>2019-12-04 10:54</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M34" s="20" t="inlineStr">
@@ -2833,17 +2833,17 @@
         </is>
       </c>
       <c r="I35" s="18" t="n">
-        <v>1.6039</v>
+        <v>1.6055</v>
       </c>
       <c r="J35" s="21" t="n">
-        <v>-0.0013</v>
+        <v>-0.0003</v>
       </c>
       <c r="K35" s="9" t="n">
-        <v>-5.8</v>
+        <v>-1.38</v>
       </c>
       <c r="L35" s="20" t="inlineStr">
         <is>
-          <t>2019-12-04 10:54</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M35" s="20" t="inlineStr">
@@ -2902,17 +2902,17 @@
         </is>
       </c>
       <c r="I36" s="18" t="n">
-        <v>0.7588</v>
+        <v>0.7575</v>
       </c>
       <c r="J36" s="21" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="K36" s="8" t="n">
-        <v>1.77</v>
+        <v>-0.0012</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-3.98</v>
       </c>
       <c r="L36" s="20" t="inlineStr">
         <is>
-          <t>2019-12-04 10:54</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M36" s="20" t="inlineStr">
@@ -2971,17 +2971,17 @@
         </is>
       </c>
       <c r="I37" s="18" t="n">
-        <v>1.6844</v>
+        <v>1.6833</v>
       </c>
       <c r="J37" s="21" t="n">
-        <v>0.0009</v>
+        <v>0.0002</v>
       </c>
       <c r="K37" s="8" t="n">
-        <v>2.77</v>
+        <v>0.59</v>
       </c>
       <c r="L37" s="20" t="inlineStr">
         <is>
-          <t>2019-12-04 10:54</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M37" s="20" t="inlineStr">
@@ -3040,17 +3040,17 @@
         </is>
       </c>
       <c r="I38" s="18" t="n">
-        <v>1.598</v>
+        <v>1.5992</v>
       </c>
       <c r="J38" s="21" t="n">
-        <v>-0.0019</v>
+        <v>-0.0011</v>
       </c>
       <c r="K38" s="9" t="n">
-        <v>-6.14</v>
+        <v>-3.68</v>
       </c>
       <c r="L38" s="20" t="inlineStr">
         <is>
-          <t>2019-12-04 10:54</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M38" s="20" t="inlineStr">
@@ -3109,17 +3109,17 @@
         </is>
       </c>
       <c r="I39" s="18" t="n">
-        <v>0.5484</v>
+        <v>0.5487</v>
       </c>
       <c r="J39" s="21" t="n">
-        <v>0.0019</v>
+        <v>0.0024</v>
       </c>
       <c r="K39" s="8" t="n">
-        <v>5.95</v>
+        <v>7.73</v>
       </c>
       <c r="L39" s="20" t="inlineStr">
         <is>
-          <t>2019-12-04 10:54</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M39" s="20" t="inlineStr">
@@ -3247,17 +3247,17 @@
         </is>
       </c>
       <c r="I41" s="18" t="n">
-        <v>1.7334</v>
+        <v>1.7336</v>
       </c>
       <c r="J41" s="21" t="n">
         <v>-0.001</v>
       </c>
       <c r="K41" s="9" t="n">
-        <v>-2.18</v>
+        <v>-1.94</v>
       </c>
       <c r="L41" s="20" t="inlineStr">
         <is>
-          <t>2019-12-04 10:54</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M41" s="20" t="inlineStr">
@@ -3316,17 +3316,17 @@
         </is>
       </c>
       <c r="I42" s="18" t="n">
-        <v>1.148</v>
+        <v>1.1478</v>
       </c>
       <c r="J42" s="21" t="n">
-        <v>-0.0002</v>
+        <v>-0.0004</v>
       </c>
       <c r="K42" s="9" t="n">
-        <v>-0.33</v>
+        <v>-0.65</v>
       </c>
       <c r="L42" s="20" t="inlineStr">
         <is>
-          <t>2019-12-04 10:54</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M42" s="20" t="inlineStr">
@@ -3454,17 +3454,17 @@
         </is>
       </c>
       <c r="I44" s="18" t="n">
-        <v>0.9933</v>
+        <v>0.9943</v>
       </c>
       <c r="J44" s="21" t="n">
-        <v>-0.0037</v>
+        <v>-0.0028</v>
       </c>
       <c r="K44" s="9" t="n">
-        <v>-4.95</v>
+        <v>-3.61</v>
       </c>
       <c r="L44" s="20" t="inlineStr">
         <is>
-          <t>2019-12-04 10:54</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M44" s="20" t="inlineStr">
@@ -3523,17 +3523,17 @@
         </is>
       </c>
       <c r="I45" s="18" t="n">
-        <v>0.373</v>
+        <v>0.372</v>
       </c>
       <c r="J45" s="21" t="n">
-        <v>-0.0027</v>
+        <v>-0.0053</v>
       </c>
       <c r="K45" s="9" t="n">
-        <v>-3.35</v>
+        <v>-6.7</v>
       </c>
       <c r="L45" s="20" t="inlineStr">
         <is>
-          <t>2019-12-04 10:55</t>
+          <t>2019-12-04 15:04</t>
         </is>
       </c>
       <c r="M45" s="20" t="inlineStr">
@@ -3592,17 +3592,17 @@
         </is>
       </c>
       <c r="I46" s="18" t="n">
-        <v>0.7954</v>
+        <v>0.7965</v>
       </c>
       <c r="J46" s="21" t="n">
-        <v>0.0001</v>
+        <v>0.0015</v>
       </c>
       <c r="K46" s="8" t="n">
-        <v>0.15</v>
+        <v>1.79</v>
       </c>
       <c r="L46" s="20" t="inlineStr">
         <is>
-          <t>2019-12-04 10:54</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M46" s="20" t="inlineStr">
@@ -3661,17 +3661,17 @@
         </is>
       </c>
       <c r="I47" s="18" t="n">
-        <v>1.0793</v>
+        <v>1.0798</v>
       </c>
       <c r="J47" s="21" t="n">
-        <v>-0.0049</v>
+        <v>-0.0046</v>
       </c>
       <c r="K47" s="9" t="n">
-        <v>-4.86</v>
+        <v>-4.41</v>
       </c>
       <c r="L47" s="20" t="inlineStr">
         <is>
-          <t>2019-12-04 10:54</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M47" s="20" t="inlineStr">
@@ -3730,17 +3730,17 @@
         </is>
       </c>
       <c r="I48" s="18" t="n">
-        <v>1.2326</v>
+        <v>1.2406</v>
       </c>
       <c r="J48" s="21" t="n">
-        <v>0.0121</v>
+        <v>0.0187</v>
       </c>
       <c r="K48" s="8" t="n">
-        <v>10.79</v>
+        <v>16.66</v>
       </c>
       <c r="L48" s="20" t="inlineStr">
         <is>
-          <t>2019-12-04 10:55</t>
+          <t>2019-12-04 15:30</t>
         </is>
       </c>
       <c r="M48" s="20" t="inlineStr">
@@ -3799,17 +3799,17 @@
         </is>
       </c>
       <c r="I49" s="18" t="n">
-        <v>0.9728</v>
+        <v>0.9746</v>
       </c>
       <c r="J49" s="21" t="n">
-        <v>-0.0048</v>
+        <v>-0.0029</v>
       </c>
       <c r="K49" s="9" t="n">
-        <v>-2.28</v>
+        <v>-1.39</v>
       </c>
       <c r="L49" s="20" t="inlineStr">
         <is>
-          <t>2019-12-04 10:54</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M49" s="20" t="inlineStr">
@@ -3868,17 +3868,17 @@
         </is>
       </c>
       <c r="I50" s="18" t="n">
-        <v>1.3581</v>
+        <v>1.3572</v>
       </c>
       <c r="J50" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" s="8" t="n">
-        <v>0</v>
+        <v>-0.0007</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-0.3</v>
       </c>
       <c r="L50" s="20" t="inlineStr">
         <is>
-          <t>2019-12-04 10:54</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M50" s="20" t="inlineStr">
@@ -3937,17 +3937,17 @@
         </is>
       </c>
       <c r="I51" s="18" t="n">
-        <v>1.2882</v>
+        <v>1.2896</v>
       </c>
       <c r="J51" s="21" t="n">
-        <v>-0.0014</v>
+        <v>-0.0003</v>
       </c>
       <c r="K51" s="9" t="n">
-        <v>-0.59</v>
+        <v>-0.13</v>
       </c>
       <c r="L51" s="20" t="inlineStr">
         <is>
-          <t>2019-12-04 10:54</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M51" s="20" t="inlineStr">
@@ -4006,17 +4006,17 @@
         </is>
       </c>
       <c r="I52" s="18" t="n">
-        <v>1.4628</v>
+        <v>1.4599</v>
       </c>
       <c r="J52" s="21" t="n">
-        <v>-0.009900000000000001</v>
+        <v>-0.0118</v>
       </c>
       <c r="K52" s="9" t="n">
-        <v>-4.02</v>
+        <v>-4.82</v>
       </c>
       <c r="L52" s="20" t="inlineStr">
         <is>
-          <t>2019-12-04 10:55</t>
+          <t>2019-12-04 16:00</t>
         </is>
       </c>
       <c r="M52" s="20" t="inlineStr">
@@ -4075,17 +4075,17 @@
         </is>
       </c>
       <c r="I53" s="18" t="n">
-        <v>1.9423</v>
+        <v>1.9438</v>
       </c>
       <c r="J53" s="21" t="n">
-        <v>-0.0019</v>
+        <v>-0.0011</v>
       </c>
       <c r="K53" s="9" t="n">
-        <v>-0.76</v>
+        <v>-0.45</v>
       </c>
       <c r="L53" s="20" t="inlineStr">
         <is>
-          <t>2019-12-04 10:54</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M53" s="20" t="inlineStr">
@@ -4144,17 +4144,17 @@
         </is>
       </c>
       <c r="I54" s="18" t="n">
-        <v>0.8627</v>
+        <v>0.8633</v>
       </c>
       <c r="J54" s="21" t="n">
-        <v>-0.0019</v>
+        <v>-0.0011</v>
       </c>
       <c r="K54" s="9" t="n">
-        <v>-0.44</v>
+        <v>-0.28</v>
       </c>
       <c r="L54" s="20" t="inlineStr">
         <is>
-          <t>2019-12-04 10:54</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M54" s="20" t="inlineStr">
